--- a/Spotify.xlsx
+++ b/Spotify.xlsx
@@ -1,29 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarya\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95FC56B-1AC6-4E4B-91A4-6AC263D87828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>zzjlsvv@gmail.com</t>
+  </si>
+  <si>
+    <t>gEujH436*</t>
+  </si>
+  <si>
+    <t>ACqAtYi@gmail.com</t>
+  </si>
+  <si>
+    <t>namcX436*</t>
+  </si>
+  <si>
+    <t>LwikyjP@gmail.com</t>
+  </si>
+  <si>
+    <t>UyYaA436*</t>
+  </si>
+  <si>
+    <t>PdsajMO@gmail.com</t>
+  </si>
+  <si>
+    <t>opVxj436*</t>
+  </si>
+  <si>
+    <t>hnsKKzo@gmail.com</t>
+  </si>
+  <si>
+    <t>Ihmdj436*</t>
+  </si>
+  <si>
+    <t>JasazLO@gmail.com</t>
+  </si>
+  <si>
+    <t>JyPHh436*</t>
+  </si>
+  <si>
+    <t>lfPdwTz@gmail.com</t>
+  </si>
+  <si>
+    <t>DGaDx436*</t>
+  </si>
+  <si>
+    <t>iFCmUNO@gmail.com</t>
+  </si>
+  <si>
+    <t>YBwyK436*</t>
+  </si>
+  <si>
+    <t>jZoquzK@gmail.com</t>
+  </si>
+  <si>
+    <t>xQbbx436*</t>
+  </si>
+  <si>
+    <t>APWKDIS@gmail.com</t>
+  </si>
+  <si>
+    <t>HQDtT436*</t>
+  </si>
+  <si>
+    <t>tTGkrcr@gmail.com</t>
+  </si>
+  <si>
+    <t>hvCZC436*</t>
+  </si>
+  <si>
+    <t>KYjHuiu@gmail.com</t>
+  </si>
+  <si>
+    <t>MJPsR436*</t>
+  </si>
+  <si>
+    <t>OdosANz@gmail.com</t>
+  </si>
+  <si>
+    <t>YlcsS436*</t>
+  </si>
+  <si>
+    <t>jOyvQIl@gmail.com</t>
+  </si>
+  <si>
+    <t>drUdS436*</t>
+  </si>
+  <si>
+    <t>ASrqBil@gmail.com</t>
+  </si>
+  <si>
+    <t>NQqEw436*</t>
+  </si>
+  <si>
+    <t>nrEJIsQ@gmail.com</t>
+  </si>
+  <si>
+    <t>PIANt436*</t>
+  </si>
+  <si>
+    <t>QdNTCEF@gmail.com</t>
+  </si>
+  <si>
+    <t>rpvpH436*</t>
+  </si>
+  <si>
+    <t>PUAmrOq@gmail.com</t>
+  </si>
+  <si>
+    <t>tgQmK436*</t>
+  </si>
+  <si>
+    <t>fRlqGEu@gmail.com</t>
+  </si>
+  <si>
+    <t>CZCin436*</t>
+  </si>
+  <si>
+    <t>DCDVEJd@gmail.com</t>
+  </si>
+  <si>
+    <t>OcOHc436*</t>
+  </si>
+  <si>
+    <t>FyQWNbI@gmail.com</t>
+  </si>
+  <si>
+    <t>VyGRK436*</t>
+  </si>
+  <si>
+    <t>ZsvrKdw@gmail.com</t>
+  </si>
+  <si>
+    <t>JKDHt830*</t>
+  </si>
+  <si>
+    <t>jYPTzjd@gmail.com</t>
+  </si>
+  <si>
+    <t>MAlKU1326*</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +204,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +491,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A11" r:id="rId6" xr:uid="{BBAC84A8-3ECB-405E-9A9B-1E74893C2C25}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>